--- a/parameterizedtestngdemo/customerdata - v1.xlsx
+++ b/parameterizedtestngdemo/customerdata - v1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\repository\amexseleniumrepo\parameterizedtestngdemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94126719-D2D6-459B-B700-CED077806563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168DE3CC-52BF-4122-84C9-BFD1D3256FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,13 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>FirstName</t>
-  </si>
-  <si>
-    <t>LastName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Parameswari</t>
   </si>
@@ -373,10 +368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="C1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -394,7 +389,33 @@
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="3"/>
+      <c r="D2" s="1"/>
+      <c r="H2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0397EF-27B1-4EAF-B46F-387F05548E98}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -402,30 +423,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="1"/>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="1"/>
-      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>